--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6255D9A-3873-4D63-A561-96CB4AFC39D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA310D94-62A8-48FA-9D9E-5A32F73896E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47700" yWindow="3900" windowWidth="29190" windowHeight="15915" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
+    <workbookView xWindow="-29925" yWindow="765" windowWidth="27075" windowHeight="19080" xr2:uid="{2C5B991D-6CD6-4A19-B904-248F473C2467}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Healthcare</t>
   </si>
@@ -53,133 +53,142 @@
     <t>Software</t>
   </si>
   <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Diseases</t>
+  </si>
+  <si>
+    <t>Alzheimer's</t>
+  </si>
+  <si>
+    <t>Crypto</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Screens</t>
+  </si>
+  <si>
+    <t>Largest</t>
+  </si>
+  <si>
+    <t>Telecom &amp; Media</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Philosophy</t>
+  </si>
+  <si>
+    <t>Cardiovascular</t>
+  </si>
+  <si>
+    <t>Hepatology</t>
+  </si>
+  <si>
+    <t>Nephrology</t>
+  </si>
+  <si>
+    <t>Hematology</t>
+  </si>
+  <si>
+    <t>Oncology (Solid Tumors)</t>
+  </si>
+  <si>
+    <t>Women's Health, Men's Health, Urology</t>
+  </si>
+  <si>
+    <t>Endocrinology</t>
+  </si>
+  <si>
+    <t>Neurology</t>
+  </si>
+  <si>
+    <t>Psychiatry</t>
+  </si>
+  <si>
+    <t>Genetic Diseases</t>
+  </si>
+  <si>
+    <t>Chess</t>
+  </si>
+  <si>
+    <t>Literature (Academic Papers)</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Poker</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>Interactive Entertainment</t>
+  </si>
+  <si>
+    <t>Card Games (Non-Poker)</t>
+  </si>
+  <si>
+    <t>Godel</t>
+  </si>
+  <si>
+    <t>Games (Combinatorial)</t>
+  </si>
+  <si>
+    <t>Hedge Funds</t>
+  </si>
+  <si>
+    <t>Patents</t>
+  </si>
+  <si>
+    <t>Comp. Chemistry</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>HCIT</t>
+  </si>
+  <si>
     <t>Biopharma</t>
   </si>
   <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Consumer</t>
-  </si>
-  <si>
-    <t>Medical Devices</t>
-  </si>
-  <si>
-    <t>Diseases</t>
-  </si>
-  <si>
-    <t>Alzheimer's</t>
-  </si>
-  <si>
-    <t>Crypto</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Screens</t>
-  </si>
-  <si>
-    <t>Largest</t>
-  </si>
-  <si>
-    <t>Telecom &amp; Media</t>
-  </si>
-  <si>
-    <t>Gaming</t>
-  </si>
-  <si>
-    <t>Learning</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t>Philosophy</t>
-  </si>
-  <si>
-    <t>Cardiovascular</t>
-  </si>
-  <si>
-    <t>Hepatology</t>
-  </si>
-  <si>
-    <t>Nephrology</t>
-  </si>
-  <si>
-    <t>Hematology</t>
-  </si>
-  <si>
-    <t>Oncology (Solid Tumors)</t>
-  </si>
-  <si>
-    <t>Women's Health, Men's Health, Urology</t>
-  </si>
-  <si>
-    <t>Endocrinology</t>
-  </si>
-  <si>
-    <t>Neurology</t>
-  </si>
-  <si>
-    <t>Psychiatry</t>
-  </si>
-  <si>
-    <t>Genetic Diseases</t>
-  </si>
-  <si>
-    <t>Chess</t>
-  </si>
-  <si>
-    <t>Literature (Academic Papers)</t>
-  </si>
-  <si>
-    <t>Games</t>
-  </si>
-  <si>
-    <t>Poker</t>
-  </si>
-  <si>
-    <t>Biology</t>
-  </si>
-  <si>
-    <t>Macro</t>
-  </si>
-  <si>
-    <t>Interactive Entertainment</t>
-  </si>
-  <si>
-    <t>Card Games (Non-Poker)</t>
-  </si>
-  <si>
-    <t>Godel</t>
-  </si>
-  <si>
-    <t>Games (Combinatorial)</t>
-  </si>
-  <si>
-    <t>Hedge Funds</t>
-  </si>
-  <si>
-    <t>Patents</t>
-  </si>
-  <si>
-    <t>Comp. Chemistry</t>
-  </si>
-  <si>
-    <t>Books</t>
-  </si>
-  <si>
-    <t>HCIT</t>
+    <t>Gastroenterology</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Web</t>
   </si>
 </sst>
 </file>
@@ -560,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42384B1-3750-4D72-9C5D-79E74248529A}">
   <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -571,7 +580,7 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="1.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="26.42578125" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -586,21 +595,24 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45004</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3">
         <v>44955</v>
@@ -608,22 +620,25 @@
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="J3" s="3">
+        <v>44989</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3">
         <v>44955</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3">
-        <v>44942</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -631,14 +646,14 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3">
-        <v>44965</v>
+        <v>45077</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>4</v>
@@ -646,45 +661,53 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3">
-        <v>44961</v>
+        <v>45077</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="I6" s="2"/>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="3">
+        <v>45158</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>44961</v>
+        <v>45077</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3">
-        <v>44947</v>
+        <v>45011</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>44964</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
@@ -695,16 +718,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>44961</v>
+        <v>45075</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -712,123 +735,144 @@
         <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>44965</v>
+        <v>45077</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3">
-        <v>44947</v>
+        <v>45079</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J11" s="3">
-        <v>44955</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45008</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45067</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="3">
+        <v>44955</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="3">
-        <v>44961</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I15" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="J15" s="3">
+        <v>45156</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3">
-        <v>44928</v>
+        <v>44973</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
         <v>44943</v>
       </c>
       <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3">
+        <v>45001</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45040</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="3">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45156</v>
+      </c>
+      <c r="F19" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="3">
-        <v>44962</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3">
-        <v>44954</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C20" s="3">
-        <v>44948</v>
+        <v>44989</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -848,14 +892,14 @@
     <hyperlink ref="B4" r:id="rId13" xr:uid="{8948FD7E-0C11-4C65-9F65-A8131ECB1883}"/>
     <hyperlink ref="C3" r:id="rId14" xr:uid="{5BD33B80-85A5-495B-8D10-F6024818A7EA}"/>
     <hyperlink ref="B16" r:id="rId15" display="Computational Chemistry" xr:uid="{00DB20DF-95BE-4ACB-833E-78679B1DEBE4}"/>
-    <hyperlink ref="I13" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
-    <hyperlink ref="I16" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
-    <hyperlink ref="I18" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
-    <hyperlink ref="I15" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
+    <hyperlink ref="I14" r:id="rId16" xr:uid="{B5350D8F-E15C-4D97-AFF4-87976D01709F}"/>
+    <hyperlink ref="I17" r:id="rId17" xr:uid="{A4E89726-D06D-4F39-9FDF-8E6FF757E15B}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{E240AB7D-EB2A-4C47-ACE3-6DC4E97E10C6}"/>
+    <hyperlink ref="I16" r:id="rId19" xr:uid="{03928271-2931-4899-87B7-284D280588C6}"/>
     <hyperlink ref="B17" r:id="rId20" xr:uid="{F9503C01-C6D8-4507-B1D8-228E2A2FFAAD}"/>
-    <hyperlink ref="I11" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
+    <hyperlink ref="I12" r:id="rId21" xr:uid="{A65108F0-2E05-4701-9FD5-ECB4643B538C}"/>
     <hyperlink ref="F11" r:id="rId22" xr:uid="{80621359-2F8B-4A5B-BC6A-2FB82EA4769B}"/>
-    <hyperlink ref="I14" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
+    <hyperlink ref="I15" r:id="rId23" xr:uid="{CD87D806-2453-46D8-B81F-88E0AF410576}"/>
     <hyperlink ref="F20" r:id="rId24" xr:uid="{A3E39291-0AD8-4434-9956-506F6456A6EF}"/>
     <hyperlink ref="F18" r:id="rId25" xr:uid="{3E303140-6F63-43CA-A742-BF4F34C477BF}"/>
     <hyperlink ref="B18" r:id="rId26" xr:uid="{6113C533-6134-4D6E-B70B-33E844D3E20D}"/>
@@ -863,8 +907,12 @@
     <hyperlink ref="B20" r:id="rId28" xr:uid="{548404B7-486D-4DC1-8702-5308F6B726F9}"/>
     <hyperlink ref="F3" r:id="rId29" xr:uid="{7461AF2B-1114-4E32-AB2C-C6FAFC7D3A58}"/>
     <hyperlink ref="C6" r:id="rId30" xr:uid="{2C353417-9F4E-40AB-B114-1CBC57D488C4}"/>
+    <hyperlink ref="F12" r:id="rId31" xr:uid="{48D24448-8336-4F85-A615-1301297E8AB2}"/>
+    <hyperlink ref="I18" r:id="rId32" xr:uid="{B734B13E-ABA2-4947-A17D-61A56EEED260}"/>
+    <hyperlink ref="I11" r:id="rId33" xr:uid="{153B455A-C061-4AA8-928A-EEA0E41E6023}"/>
+    <hyperlink ref="I6" r:id="rId34" xr:uid="{82AAD8AA-25D4-4169-92B7-9ED20F2227BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId31"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId35"/>
 </worksheet>
 </file>